--- a/src/results/output.xlsx
+++ b/src/results/output.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s-a-069/Desktop/vscode/project_slack_lunchbot/src/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBADD18F-2E31-9B41-AB2A-5C6BC1BA4C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="34320" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve"> 10월 10일
  대체공휴일
@@ -177,12 +183,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,8 +196,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -230,23 +243,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -288,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,9 +340,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,6 +392,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,12 +585,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="104.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="142.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="123.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1">
@@ -572,104 +640,44 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="H4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -677,73 +685,44 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>16</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>17</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/results/output.xlsx
+++ b/src/results/output.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s-a-069/Desktop/vscode/project_slack_lunchbot/src/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBADD18F-2E31-9B41-AB2A-5C6BC1BA4C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="34320" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -61,13 +55,11 @@
   <si>
     <t xml:space="preserve"> 치커리샐러드*살구드레싱
  떡만두국
-쌀밤
+쌀밥
 생선까스*타르타르5
 연두부찜
 다시마브로콜리숙회
-깜두기
-선르즈
-석류주스
+각두기
 </t>
   </si>
   <si>
@@ -99,10 +91,9 @@
  고추참치덮밥
 유부장국
 수제)페스츄리핫도그
-어묵복음
+어묵볶음
 후르츠샐러드
 각두기
-건빵튀김
 </t>
   </si>
   <si>
@@ -135,12 +126,11 @@
   <si>
     <t xml:space="preserve"> ^ 건포도샐러드*블루베리드레싱
  나폴리탄스파게티
-크링스프/오복지양념밥
+크림스프/오복지양념밥
 할라피뇨미트볼
 백패커 '오레오튀김'
 수제피클
-버추김       `조
-베이비샐러드
+배추김치 “호
 </t>
   </si>
   <si>
@@ -174,21 +164,20 @@
 쌀밥
 고추잡채*가리비꽃빵
 양장피냉채
- 머부지
-"추김치
-~           _
+ㆍ         단무지
+톡 2 배추김치
 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -196,15 +185,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,30 +225,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -308,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,27 +315,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,24 +349,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,24 +524,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="104.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="142.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="104.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="123.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1">
@@ -640,89 +567,118 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K6" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/results/output.xlsx
+++ b/src/results/output.xlsx
@@ -14,158 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t xml:space="preserve"> 10월 10일
- 대체공휴일
-10월 9일 한글날
-한글의소중함을알자!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10월 11일
- 김치콩나물국
-쌀밥
-돈육메추리알조림
-두부김무침
-배추김치/숭능/도시락김
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 느타리육개장
-쌀밥
-스팸두부김치
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve"> 0009 뚝)얼큰곤드레국밥
+통밀잡곡밥
+맛살스크램블에그
 알감자조림
-미역오이초무침
-꾸기
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 글소스오징어덮밥
-가츠오부시장국
-집게맛살튀김*씨앗고로케
-우동곤약샐러드
-단호박팔찜
+콩나물부주무침
+두기
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 바지락칼국수
+후리가케밤
+고기왕만두*초간장
+충무식어묵초무침
+산고추지
 배추김치
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 치커리샐러드*살구드레싱
- 떡만두국
-쌀밥
-생선까스*타르타르5
-연두부찜
-다시마브로콜리숙회
-각두기
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10월 12일
- 닭곰탕
-쌀밥
+    <t xml:space="preserve"> 뚝)전주식콩나물해장국
+쌀밤
+두전*부주호박전
+건파래자반
+열갈이된장나물
+짝두기
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 백패커 잡채파스타
+올리브볶음밥
+브로콜리크림수프
+피자왕춘권
+오렌지
+배추김치
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 뚝)순살감자탕
+현미밥
+버섯잡채
+메주리알곤약조림
+미역초무침
+두기
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 마파두부덮밥
+계란파국
+가자미유린기
+꽃빵연유튀김
+반달단무.
+배추김치
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 뚝)순두부백탕
+쌀밤
+돈육김치볶음
+매콤어묵조림
+브로콜리&amp;컬리플라워초회
+짝두기
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 부대덮밥
+가쓰오부시장국
+새우볼꼬치*질리5
+감자샐러드
+몽키바나나덧
+짝두기
+~니
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 가을보양식 '주우탕 추'
+쌀밤
+어니언고기산적
 두부조림
-열무된장무침
-배추김치/숭능/도시락김
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뚝)홍합탕
-쌀밥
-순대야채볶음
-호박채전
-고추지양파초절임
+얼갈이겉절이
+*10월의 계절김치* 석박지
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 불고기할라피뇨필라프
+팽이미소시루
+핫타이누들샐러드
+스마일감자튀김
+비트피클
 배추김치
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아이스황도
-짜사이무침
-배추김치
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그린샐러드*키위드레싱
- 고추참치덮밥
-유부장국
-수제)페스츄리핫도그
-어묵볶음
-후르츠샐러드
-각두기
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10월 13일
- 장터국밥
-쌀밥
-함박파인애플조림
-감자채볶음
-배추김치/숭능/도시락김
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뚝)버섯된장찌개
-귀리밥
-청경채돈욱부음
-네모랑팽
-건파래자반
-배추김치
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 닭갈비볶음밥
-다시마무채국
-시리얼고구마맛탕
-마카로니콘샐러드
-미니딸기페스츄리
-배추김치
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ^ 건포도샐러드*블루베리드레싱
- 나폴리탄스파게티
-크림스프/오복지양념밥
-할라피뇨미트볼
-백패커 '오레오튀김'
-수제피클
-배추김치 “호
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10월 14일
- 즉석냄비해장라면
-쌀밥
-치킨너것
-딸기요거트
-배추김치/숭능/도시락김
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 고등어엿장구이
-햄야채볶음
-아삭이고추된장무침
-10월의 계절김치 '석박지'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 꼬치어묵김치우동
-김가루밥
-어니언링튀김
-고구마범벅
-파인애플
-백김치
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 양배추샐러드*유자드레싱
- 뚝)해물누릉지탕
-쌀밥
-고추잡채*가리비꽃빵
-양장피냉채
-ㆍ         단무지
-톡 2 배추김치
 </t>
   </si>
 </sst>
@@ -525,13 +463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -547,136 +485,46 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/results/output.xlsx
+++ b/src/results/output.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t xml:space="preserve"> 0009 뚝)얼큰곤드레국밥
+    <t xml:space="preserve">0009 뚝)얼큰곤드레국밥
 통밀잡곡밥
 맛살스크램블에그
 알감자조림
@@ -25,7 +25,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 바지락칼국수
+    <t xml:space="preserve">바지락칼국수
 후리가케밤
 고기왕만두*초간장
 충무식어묵초무침
@@ -34,7 +34,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 뚝)전주식콩나물해장국
+    <t xml:space="preserve">뚝)전주식콩나물해장국
 쌀밤
 두전*부주호박전
 건파래자반
@@ -43,7 +43,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 백패커 잡채파스타
+    <t xml:space="preserve">백패커 잡채파스타
 올리브볶음밥
 브로콜리크림수프
 피자왕춘권
@@ -52,7 +52,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 뚝)순살감자탕
+    <t xml:space="preserve">뚝)순살감자탕
 현미밥
 버섯잡채
 메주리알곤약조림
@@ -61,7 +61,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 마파두부덮밥
+    <t xml:space="preserve">마파두부덮밥
 계란파국
 가자미유린기
 꽃빵연유튀김
@@ -70,7 +70,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 뚝)순두부백탕
+    <t xml:space="preserve">뚝)순두부백탕
 쌀밤
 돈육김치볶음
 매콤어묵조림
@@ -79,7 +79,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 부대덮밥
+    <t xml:space="preserve">부대덮밥
 가쓰오부시장국
 새우볼꼬치*질리5
 감자샐러드
@@ -89,7 +89,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 가을보양식 '주우탕 추'
+    <t xml:space="preserve">가을보양식 '주우탕 추'
 쌀밤
 어니언고기산적
 두부조림
@@ -98,7 +98,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 불고기할라피뇨필라프
+    <t xml:space="preserve">불고기할라피뇨필라프
 팽이미소시루
 핫타이누들샐러드
 스마일감자튀김
